--- a/Inputs/Questions-ForAllGroups.xlsx
+++ b/Inputs/Questions-ForAllGroups.xlsx
@@ -26,22 +26,22 @@
     <t>categoryName</t>
   </si>
   <si>
-    <t>Question1-130120 (Public)</t>
-  </si>
-  <si>
-    <t>Question1-130120 Summary</t>
-  </si>
-  <si>
-    <t>Public</t>
+    <t>Question1-220120 (Public)</t>
+  </si>
+  <si>
+    <t>Question1-220120 Summary</t>
+  </si>
+  <si>
+    <t>All Inside Track Members</t>
   </si>
   <si>
     <t>Planning &amp; Strategy</t>
   </si>
   <si>
-    <t>Question2-130120 (Private Group)</t>
-  </si>
-  <si>
-    <t>Question2-130120 Summary</t>
+    <t>Question2-220120 (Private Group)</t>
+  </si>
+  <si>
+    <t>Question2-220120 Summary</t>
   </si>
   <si>
     <t>Test Group</t>
@@ -50,10 +50,10 @@
     <t>Emerging Technologies</t>
   </si>
   <si>
-    <t>Question3-130120 (External Members)</t>
-  </si>
-  <si>
-    <t>Question3-130120 Summary</t>
+    <t>Question3-220120 (External Members)</t>
+  </si>
+  <si>
+    <t>Question3-220120 Summary</t>
   </si>
   <si>
     <t>Uptime External</t>
@@ -62,10 +62,10 @@
     <t>Staffing &amp; Training</t>
   </si>
   <si>
-    <t>Question4-130120 (Network)</t>
-  </si>
-  <si>
-    <t>Question4-130120 Summary</t>
+    <t>Question4-220120 (Network)</t>
+  </si>
+  <si>
+    <t>Question4-220120 Summary</t>
   </si>
   <si>
     <t>Uptime Institute Network</t>
@@ -74,10 +74,10 @@
     <t>Management Technology</t>
   </si>
   <si>
-    <t>Question5-130120 (Distributed Resiliency)</t>
-  </si>
-  <si>
-    <t>Question5-130120 Summary</t>
+    <t>Question5-220120 (Distributed Resiliency)</t>
+  </si>
+  <si>
+    <t>Question5-220120 Summary</t>
   </si>
   <si>
     <t>UI Network (Spanish)</t>
@@ -86,10 +86,10 @@
     <t>Risk &amp; Resiliency</t>
   </si>
   <si>
-    <t>Question6-130120 (Internal Admins)</t>
-  </si>
-  <si>
-    <t>Question6-130120 Summary</t>
+    <t>Question6-220120 (Internal Admins)</t>
+  </si>
+  <si>
+    <t>Question6-220120 Summary</t>
   </si>
   <si>
     <t>Internal Admin Group</t>
@@ -98,10 +98,10 @@
     <t>New Builds &amp; Equipment</t>
   </si>
   <si>
-    <t>Question7-130120</t>
-  </si>
-  <si>
-    <t>Question7-130120 Summary</t>
+    <t>Question7-220120</t>
+  </si>
+  <si>
+    <t>Question7-220120 Summary</t>
   </si>
   <si>
     <t>SomeEmails</t>
